--- a/Imagens.xlsx
+++ b/Imagens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hashtagtreinamentos-my.sharepoint.com/personal/diego_hashtagtreinamentos_com/Documents/Hashtag/Cursos/Power BI Impressionador/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIEDRI NOTE\Downloads\Curso Python\API - JSON\API - COMERCIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_AD4D361C20488DEA4E38A031A49E73DA5ADEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E475A4BE-D43D-4875-B9DC-3D3FFCE3F069}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEB0F02-1268-4B8C-BFEA-071EE9AD4EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="0" windowWidth="20295" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,67 +36,67 @@
     <t>Mouse</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=1kTIxer-ZRc7k7DorhEGyC1joLMv0dHjH</t>
-  </si>
-  <si>
     <t>Camisa</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=1_U_pG2KSO6vHy0gdMg86ipX1qvmIaRBV</t>
-  </si>
-  <si>
     <t>Televisão</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=17jKyf2RbaTeGNyTnkWGS3B2H_xzXBamq</t>
-  </si>
-  <si>
     <t>Relógio</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=1vpDR2zdy7eQuimHFGZojNdw4PpYcMY1K</t>
-  </si>
-  <si>
     <t>Celular</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=1XR7wNuzIJQTc7LI0tpERvxFWO2w7OqCG</t>
-  </si>
-  <si>
     <t>Notebook</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=1xmNCvxRTh7epGxitG3TCXpHCBBBvPyAE</t>
-  </si>
-  <si>
     <t>Teclado</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=1yBbR6Mf2rVtnzmA7NQ-R1thL9vzRuyHD</t>
-  </si>
-  <si>
     <t>Casaco</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=13q3oMYC0z-SKgN2Zea7VufOm1-mD04O1</t>
-  </si>
-  <si>
     <t>Monitor</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=1xCx285Bw153K5s4irDhfQ65N4MLyxfEY</t>
-  </si>
-  <si>
     <t>Câmera</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=1gyK_rm9A8VIaEoXNGHk3EsghCwFJNay0</t>
-  </si>
-  <si>
     <t>Acessórios</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=1v7jJ8Mn2ZE1Voaaa-2xfNOqeGlLrnsrN</t>
+    <t>https://imgbb.host/images/MS2yG.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/M5uVZ.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/MSgVS.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/MSQ4H.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/MSvpp.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/MSNe1.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/MSH3E.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/MSqLc.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/MSMgI.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/M5wPk.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/MSZw6.png</t>
   </si>
 </sst>
 </file>
@@ -439,15 +439,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,89 +457,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>

--- a/Imagens.xlsx
+++ b/Imagens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIEDRI NOTE\Downloads\Curso Python\API - JSON\API - COMERCIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEB0F02-1268-4B8C-BFEA-071EE9AD4EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C182E98-8A4B-485D-884F-F2376389347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="195" yWindow="0" windowWidth="20295" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,37 +66,37 @@
     <t>Acessórios</t>
   </si>
   <si>
-    <t>https://imgbb.host/images/MS2yG.png</t>
-  </si>
-  <si>
-    <t>https://imgbb.host/images/M5uVZ.png</t>
-  </si>
-  <si>
-    <t>https://imgbb.host/images/MSgVS.png</t>
-  </si>
-  <si>
-    <t>https://imgbb.host/images/MSQ4H.png</t>
-  </si>
-  <si>
-    <t>https://imgbb.host/images/MSvpp.png</t>
-  </si>
-  <si>
-    <t>https://imgbb.host/images/MSNe1.png</t>
-  </si>
-  <si>
-    <t>https://imgbb.host/images/MSH3E.png</t>
-  </si>
-  <si>
-    <t>https://imgbb.host/images/MSqLc.png</t>
-  </si>
-  <si>
-    <t>https://imgbb.host/images/MSMgI.png</t>
-  </si>
-  <si>
-    <t>https://imgbb.host/images/M5wPk.png</t>
-  </si>
-  <si>
-    <t>https://imgbb.host/images/MSZw6.png</t>
+    <t>https://imgbb.host/images/QPXmM.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/QPP4E.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/QPWMS.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/QPiUi.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/QPxZV.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/QPE0P.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/QP4Fq.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/QPdzb.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/QPAru.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/QPIhB.png</t>
+  </si>
+  <si>
+    <t>https://imgbb.host/images/QPyE7.png</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,39 +461,39 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+      <c r="B4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -501,32 +501,32 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,15 +534,15 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
